--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24180" windowHeight="13440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="10344"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -15,12 +15,13 @@
     <sheet name="Data" sheetId="5" r:id="rId6"/>
     <sheet name="Analysis" sheetId="7" r:id="rId7"/>
     <sheet name="Dataset" sheetId="9" r:id="rId8"/>
-    <sheet name="Admin" sheetId="10" r:id="rId9"/>
+    <sheet name="File" sheetId="13" r:id="rId9"/>
+    <sheet name="Admin" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Analysis!$A$2:$P$12</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="760">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -1406,34 +1407,6 @@
   </si>
   <si>
     <t>TEL (required for PI)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># "Hold" か "Release immediately" を選択。"Hold" の場合、データの共有が可能になったら JGA チームに連絡します。公開予定日を指定することはできません</t>
-    <rPh sb="34" eb="36">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ヨテイビ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2642,19 +2615,6 @@
   </si>
   <si>
     <t>DNA Databank of Japan</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data/Analysis オブジェクトに複数のファイルが含まれる場合は、可能な限りファイルを結合し１つにまとめてください。また、ファイル名に空白を含めないでください。ファイルのアップロード・ダウンロードで不具合が発生する可能性があります。</t>
-    <rPh sb="69" eb="70">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>フク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3855,12 +3815,180 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Data/Analysis オブジェクトに登録するファイル名に空白を含めないでください。</t>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新 JGA システムリリースに伴い File シートを追加</t>
+    <rPh sb="0" eb="1">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>md5_checksum</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Data と Analysis に登録する全てのファイル名を記入します。</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Data と Analysis に登録する全てのファイルの md5 値を記入します。</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t># "Hold" か "Release immediately" を選択。"Hold" の場合、データの共有が可能になったら JGA チームに連絡します。公開予定日を指定することはできません。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>データは submission (JSUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    </r>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ヨテイビ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データは submission (JSUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3898,14 +4026,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4011,16 +4131,16 @@
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4046,9 +4166,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4074,6 +4191,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4399,97 +4519,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="126.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="11" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" ht="37.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4497,93 +4621,101 @@
         <v>409</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="13">
-        <v>43623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
         <v>588</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>589</v>
       </c>
       <c r="B28" s="13">
         <v>42285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B29" s="13">
         <v>42429</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B30" s="13">
         <v>42430</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B31" s="13">
         <v>42486</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B32" s="13">
         <v>42760</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B33" s="13">
         <v>42935</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B34" s="13">
         <v>42935</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B35" s="13">
         <v>43227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B36" s="13">
+        <v>44103</v>
       </c>
     </row>
   </sheetData>
@@ -4601,66 +4733,1013 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A1" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B18" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B20" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B21" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B22" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B23" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B24" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B25" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B29" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B31" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B32" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B34" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B35" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B36" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B38" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B39" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B40" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B41" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B42" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B43" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B44" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B45" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B46" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B47" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B48" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B49" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B50" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B51" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B52" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B53" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B54" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.625" style="1"/>
+    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
@@ -4672,83 +5751,83 @@
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
         <v>411</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="6">
         <v>2</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="13">
         <v>43623</v>
       </c>
@@ -4764,7 +5843,7 @@
     <hyperlink ref="D11" r:id="rId1" display="tkatagi@genome.tokushima-u.ac.jp"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4781,38 +5860,38 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.625" style="1"/>
-    <col min="2" max="2" width="61.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.625" style="1"/>
+    <col min="1" max="1" width="48.6640625" style="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -4823,236 +5902,236 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>614</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="D16" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="23"/>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="87" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>742</v>
-      </c>
       <c r="B22" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="6">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="6">
         <v>2</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="6">
         <v>3</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="15" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="9"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="24" t="s">
-        <v>745</v>
-      </c>
-      <c r="B31" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B31" s="23" t="s">
+        <v>741</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="6">
         <v>2</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="6">
         <v>3</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="5"/>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="24" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A37" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="6">
         <v>2</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="6">
         <v>3</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -5069,35 +6148,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="6">
         <v>2</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="6">
         <v>3</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -5105,52 +6184,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="6">
         <v>2</v>
       </c>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="6">
         <v>3</v>
       </c>
       <c r="B52" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A55" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="6">
         <v>2</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -5193,67 +6272,67 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="18"/>
-    <col min="2" max="2" width="24.875" style="1"/>
-    <col min="3" max="3" width="24.875" style="26"/>
-    <col min="4" max="4" width="24.875" style="21"/>
-    <col min="5" max="6" width="24.875" style="1"/>
-    <col min="7" max="7" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.875" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="18"/>
+    <col min="2" max="2" width="24.88671875" style="1"/>
+    <col min="3" max="3" width="24.88671875" style="25"/>
+    <col min="4" max="4" width="24.88671875" style="20"/>
+    <col min="5" max="6" width="24.88671875" style="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L1" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -5262,636 +6341,636 @@
         <v>354</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="18" t="s">
         <v>116</v>
       </c>
@@ -5916,78 +6995,78 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="59.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.875" style="1"/>
+    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>571</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -5998,7 +7077,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>218</v>
@@ -6019,1122 +7098,1122 @@
         <v>223</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="L2" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
         <v>117</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>118</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>119</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>120</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
         <v>121</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>122</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>123</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>124</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>125</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>126</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>127</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>128</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>129</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>130</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>131</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>132</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>133</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>134</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>135</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>136</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>137</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
         <v>138</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
         <v>139</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A26" s="18" t="s">
         <v>140</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="18" t="s">
         <v>141</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28" s="18" t="s">
         <v>142</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
         <v>143</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
         <v>144</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" s="18" t="s">
         <v>145</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" s="18" t="s">
         <v>146</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A33" s="18" t="s">
         <v>147</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A34" s="18" t="s">
         <v>148</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A35" s="18" t="s">
         <v>149</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A36" s="18" t="s">
         <v>150</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
         <v>151</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A38" s="18" t="s">
         <v>152</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A39" s="18" t="s">
         <v>153</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A40" s="18" t="s">
         <v>154</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A41" s="18" t="s">
         <v>155</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A42" s="18" t="s">
         <v>156</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A43" s="18" t="s">
         <v>157</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A44" s="18" t="s">
         <v>158</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A45" s="18" t="s">
         <v>159</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A46" s="18" t="s">
         <v>160</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A47" s="18" t="s">
         <v>161</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A48" s="18" t="s">
         <v>162</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A49" s="18" t="s">
         <v>163</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A50" s="18" t="s">
         <v>164</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A51" s="18" t="s">
         <v>165</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A52" s="18" t="s">
         <v>166</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A53" s="18" t="s">
         <v>167</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A54" s="18" t="s">
         <v>168</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A55" s="18" t="s">
         <v>169</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A56" s="18" t="s">
         <v>170</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A57" s="18" t="s">
         <v>171</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A58" s="18" t="s">
         <v>172</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A59" s="18" t="s">
         <v>173</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A60" s="18" t="s">
         <v>174</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A61" s="18" t="s">
         <v>175</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A62" s="18" t="s">
         <v>176</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A63" s="18" t="s">
         <v>177</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A64" s="18" t="s">
         <v>178</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A65" s="18" t="s">
         <v>179</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A66" s="18" t="s">
         <v>180</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A67" s="18" t="s">
         <v>181</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A68" s="18" t="s">
         <v>182</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A69" s="18" t="s">
         <v>183</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A70" s="18" t="s">
         <v>184</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A71" s="18" t="s">
         <v>185</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A72" s="18" t="s">
         <v>186</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A73" s="18" t="s">
         <v>187</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A74" s="18" t="s">
         <v>188</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A75" s="18" t="s">
         <v>189</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A76" s="18" t="s">
         <v>190</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A77" s="18" t="s">
         <v>191</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A78" s="18" t="s">
         <v>192</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A79" s="18" t="s">
         <v>193</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A80" s="18" t="s">
         <v>194</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A81" s="18" t="s">
         <v>195</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A82" s="18" t="s">
         <v>196</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A83" s="18" t="s">
         <v>197</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A84" s="18" t="s">
         <v>198</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A85" s="18" t="s">
         <v>199</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A86" s="18" t="s">
         <v>200</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A87" s="18" t="s">
         <v>201</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A88" s="18" t="s">
         <v>202</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A89" s="18" t="s">
         <v>203</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A90" s="18" t="s">
         <v>204</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A91" s="18" t="s">
         <v>205</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A92" s="18" t="s">
         <v>206</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A93" s="18" t="s">
         <v>207</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A94" s="18" t="s">
         <v>208</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A95" s="18" t="s">
         <v>209</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A96" s="18" t="s">
         <v>210</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A97" s="18" t="s">
         <v>211</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A98" s="18" t="s">
         <v>212</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A99" s="18" t="s">
         <v>213</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A100" s="18" t="s">
         <v>214</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A101" s="18" t="s">
         <v>215</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A102" s="18" t="s">
         <v>216</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -7215,38 +8294,38 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="38" style="18" customWidth="1"/>
-    <col min="2" max="2" width="51.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>753</v>
+        <v>547</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>751</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
@@ -7254,574 +8333,574 @@
         <v>332</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>563</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="18" t="s">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="18" t="s">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="18" t="s">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="18" t="s">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="18" t="s">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="18" t="s">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="18" t="s">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="18" t="s">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="18" t="s">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="18" t="s">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="18" t="s">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="18" t="s">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="18" t="s">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="18" t="s">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="18" t="s">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="18" t="s">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="18" t="s">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="18" t="s">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="18" t="s">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="18" t="s">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="18" t="s">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="18" t="s">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="18" t="s">
+      <c r="B46" s="5"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="18" t="s">
+      <c r="B47" s="5"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="18" t="s">
+      <c r="B48" s="5"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="18" t="s">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="18" t="s">
+      <c r="B50" s="5"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51" s="18" t="s">
+      <c r="B51" s="5"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="18" t="s">
+      <c r="B52" s="5"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53" s="18" t="s">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="18" t="s">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="18" t="s">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="18" t="s">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="18" t="s">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="18" t="s">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="18" t="s">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="18" t="s">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61" s="18" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="18" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="18" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63" s="18" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" s="18" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="18" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64" s="18" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="18" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="18" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66" s="18" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" s="18" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67" s="18" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" s="18" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68" s="18" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" s="18" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69" s="18" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" s="18" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70" s="18" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" s="18" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71" s="18" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" s="18" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72" s="18" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" s="18" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73" s="18" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" s="18" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74" s="18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" s="18" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75" s="18" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" s="18" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76" s="18" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" s="18" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77" s="18" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" s="18" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78" s="18" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" s="18" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79" s="18" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" s="18" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80" s="18" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" s="18" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81" s="18" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82" s="18" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" s="18" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83" s="18" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" s="18" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84" s="18" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" s="18" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85" s="18" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" s="18" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86" s="18" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" s="18" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87" s="18" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" s="18" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88" s="18" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" s="18" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89" s="18" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" s="18" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90" s="18" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" s="18" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91" s="18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" s="18" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92" s="18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" s="18" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93" s="18" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" s="18" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" s="18" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95" s="18" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" s="18" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96" s="18" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" s="18" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97" s="18" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" s="18" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98" s="18" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" s="18" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99" s="18" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" s="18" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100" s="18" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" s="18" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101" s="18" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" s="18" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102" s="18" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" s="18" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -7851,93 +8930,93 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="37.625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="47.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="60.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="M1" s="28" t="s">
+        <v>705</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>701</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>702</v>
+      </c>
+      <c r="O1" s="28" t="s">
         <v>703</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="P1" s="28" t="s">
         <v>704</v>
       </c>
-      <c r="O1" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="Q1" s="28"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="E2" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>353</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -7953,76 +9032,76 @@
         <v>334</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>573</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>343</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>352</v>
       </c>
@@ -8077,42 +9156,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="28.125" style="1"/>
+    <col min="1" max="16384" width="28.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>607</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>367</v>
@@ -8130,12 +9211,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>366</v>
       </c>
@@ -8164,947 +9245,35 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="N27" s="25" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B34" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B46" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B47" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="1" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B52" s="1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B53" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B54" s="1" t="s">
-        <v>682</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="10344"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -4189,11 +4189,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4214,8 +4214,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDE9D9"/>
       <color rgb="FFDAEEF3"/>
-      <color rgb="FFFDE9D9"/>
       <color rgb="FF000000"/>
       <color rgb="FFF2F2F2"/>
       <color rgb="FF0000FF"/>
@@ -4522,7 +4522,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>752</v>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -5716,7 +5716,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
     </row>
@@ -7057,14 +7057,14 @@
       <c r="K1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
@@ -9247,7 +9247,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -9265,10 +9267,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="26" t="s">
         <v>754</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="26" t="s">
         <v>755</v>
       </c>
     </row>

--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22704" windowHeight="11676" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -1207,10 +1207,6 @@
     <t>Phenotype information</t>
   </si>
   <si>
-    <t>NBDC Submission Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Agency Abbreviation</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3981,6 +3977,10 @@
   </si>
   <si>
     <t>データは submission (JSUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NBDC Number (hum)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4521,7 +4521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -4534,32 +4534,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="11" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.5">
@@ -4567,50 +4567,50 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
@@ -4633,7 +4633,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
@@ -4643,12 +4643,12 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B28" s="13">
         <v>42285</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B29" s="13">
         <v>42429</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B30" s="13">
         <v>42430</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B31" s="13">
         <v>42486</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B32" s="13">
         <v>42760</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B33" s="13">
         <v>42935</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B34" s="13">
         <v>42935</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B35" s="13">
         <v>43227</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B36" s="13">
         <v>44103</v>
@@ -4789,7 +4789,7 @@
         <v>362</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>335</v>
@@ -4801,7 +4801,7 @@
         <v>335</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -4827,7 +4827,7 @@
         <v>363</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>337</v>
@@ -4845,10 +4845,10 @@
         <v>328</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -4871,7 +4871,7 @@
         <v>364</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>336</v>
@@ -4880,19 +4880,19 @@
         <v>357</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>336</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
@@ -4918,16 +4918,16 @@
         <v>358</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
@@ -4947,22 +4947,22 @@
         <v>304</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>359</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
@@ -4979,7 +4979,7 @@
         <v>283</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>360</v>
@@ -4988,13 +4988,13 @@
         <v>328</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>371</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
@@ -5017,7 +5017,7 @@
         <v>361</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>340</v>
@@ -5026,7 +5026,7 @@
         <v>372</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
@@ -5046,19 +5046,19 @@
         <v>306</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>373</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
@@ -5075,19 +5075,19 @@
         <v>307</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>374</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
@@ -5101,22 +5101,22 @@
         <v>287</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
@@ -5139,10 +5139,10 @@
         <v>341</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
@@ -5150,25 +5150,25 @@
         <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>309</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>342</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
@@ -5179,22 +5179,22 @@
         <v>255</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>310</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>375</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
@@ -5205,7 +5205,7 @@
         <v>254</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>311</v>
@@ -5214,13 +5214,13 @@
         <v>243</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>376</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
@@ -5228,22 +5228,22 @@
         <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>312</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
@@ -5251,22 +5251,22 @@
         <v>242</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>313</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -5283,15 +5283,15 @@
         <v>314</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>290</v>
@@ -5300,10 +5300,10 @@
         <v>315</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
@@ -5311,21 +5311,21 @@
         <v>258</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>316</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>291</v>
@@ -5334,49 +5334,49 @@
         <v>317</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>293</v>
@@ -5385,15 +5385,15 @@
         <v>318</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>294</v>
@@ -5402,15 +5402,15 @@
         <v>319</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>295</v>
@@ -5419,10 +5419,10 @@
         <v>320</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
@@ -5436,10 +5436,10 @@
         <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
@@ -5453,10 +5453,10 @@
         <v>322</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
@@ -5470,7 +5470,7 @@
         <v>323</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
@@ -5481,10 +5481,10 @@
         <v>299</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
@@ -5498,7 +5498,7 @@
         <v>324</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
@@ -5512,7 +5512,7 @@
         <v>325</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
@@ -5523,7 +5523,7 @@
         <v>326</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
@@ -5534,40 +5534,40 @@
         <v>327</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
@@ -5578,12 +5578,12 @@
         <v>278</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>300</v>
@@ -5591,12 +5591,12 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
@@ -5606,12 +5606,12 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
@@ -5626,47 +5626,47 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -5684,8 +5684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
@@ -5699,12 +5699,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>377</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
@@ -5712,7 +5712,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
@@ -5728,7 +5728,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
@@ -5736,39 +5736,39 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -5819,12 +5819,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
@@ -5872,7 +5872,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -5888,7 +5888,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -5922,7 +5922,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -5938,33 +5938,33 @@
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>612</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
@@ -5991,18 +5991,18 @@
     </row>
     <row r="21" spans="1:5" s="5" customFormat="1" ht="87" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>738</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
@@ -6035,12 +6035,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.5">
@@ -6048,21 +6048,21 @@
     </row>
     <row r="30" spans="1:5" s="5" customFormat="1" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>736</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="23" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>740</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>741</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
@@ -6089,7 +6089,7 @@
     </row>
     <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
@@ -6100,7 +6100,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
@@ -6128,7 +6128,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
@@ -6142,7 +6142,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>7</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -6203,18 +6203,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -6285,40 +6285,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
@@ -6326,13 +6326,13 @@
         <v>8</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="D2" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>585</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>2</v>
@@ -6341,22 +6341,22 @@
         <v>354</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>644</v>
-      </c>
       <c r="L2" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
@@ -7025,40 +7025,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>569</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>570</v>
       </c>
       <c r="M1" s="31"/>
       <c r="N1" s="31"/>
@@ -7077,7 +7077,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>218</v>
@@ -7098,25 +7098,25 @@
         <v>223</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L2" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>418</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -7124,7 +7124,7 @@
         <v>117</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
@@ -7135,7 +7135,7 @@
         <v>118</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
@@ -7146,7 +7146,7 @@
         <v>119</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -7157,7 +7157,7 @@
         <v>120</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -7168,7 +7168,7 @@
         <v>121</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -7179,7 +7179,7 @@
         <v>122</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -7190,7 +7190,7 @@
         <v>123</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -7201,7 +7201,7 @@
         <v>124</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -7212,7 +7212,7 @@
         <v>125</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -7223,7 +7223,7 @@
         <v>126</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -7234,7 +7234,7 @@
         <v>127</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -7245,7 +7245,7 @@
         <v>128</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -7256,7 +7256,7 @@
         <v>129</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -7267,7 +7267,7 @@
         <v>130</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -7278,7 +7278,7 @@
         <v>131</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -7289,7 +7289,7 @@
         <v>132</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -7300,7 +7300,7 @@
         <v>133</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -7311,7 +7311,7 @@
         <v>134</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
@@ -7322,7 +7322,7 @@
         <v>135</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
@@ -7333,7 +7333,7 @@
         <v>136</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
@@ -7344,7 +7344,7 @@
         <v>137</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -7355,7 +7355,7 @@
         <v>138</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -7366,7 +7366,7 @@
         <v>139</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
@@ -7377,7 +7377,7 @@
         <v>140</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -7388,7 +7388,7 @@
         <v>141</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>142</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>143</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -7421,7 +7421,7 @@
         <v>144</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -7432,7 +7432,7 @@
         <v>145</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
@@ -7443,7 +7443,7 @@
         <v>146</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -7454,7 +7454,7 @@
         <v>147</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -7465,7 +7465,7 @@
         <v>148</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
@@ -7476,7 +7476,7 @@
         <v>149</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
@@ -7487,7 +7487,7 @@
         <v>150</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
@@ -7498,7 +7498,7 @@
         <v>151</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
@@ -7509,7 +7509,7 @@
         <v>152</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
@@ -7520,7 +7520,7 @@
         <v>153</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
@@ -7531,7 +7531,7 @@
         <v>154</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
@@ -7542,7 +7542,7 @@
         <v>155</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -7553,7 +7553,7 @@
         <v>156</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
@@ -7564,7 +7564,7 @@
         <v>157</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
@@ -7575,7 +7575,7 @@
         <v>158</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
@@ -7586,7 +7586,7 @@
         <v>159</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
@@ -7597,7 +7597,7 @@
         <v>160</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
@@ -7608,7 +7608,7 @@
         <v>161</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
@@ -7619,7 +7619,7 @@
         <v>162</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
@@ -7630,7 +7630,7 @@
         <v>163</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
@@ -7641,7 +7641,7 @@
         <v>164</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
@@ -7652,7 +7652,7 @@
         <v>165</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
@@ -7663,7 +7663,7 @@
         <v>166</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>167</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
@@ -7685,7 +7685,7 @@
         <v>168</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
@@ -7696,7 +7696,7 @@
         <v>169</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
@@ -7707,7 +7707,7 @@
         <v>170</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
@@ -7718,7 +7718,7 @@
         <v>171</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
@@ -7729,7 +7729,7 @@
         <v>172</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
@@ -7740,7 +7740,7 @@
         <v>173</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
@@ -7751,7 +7751,7 @@
         <v>174</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
@@ -7762,7 +7762,7 @@
         <v>175</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
@@ -7773,7 +7773,7 @@
         <v>176</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
@@ -7784,7 +7784,7 @@
         <v>177</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
@@ -7795,7 +7795,7 @@
         <v>178</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
@@ -7806,7 +7806,7 @@
         <v>179</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -7817,7 +7817,7 @@
         <v>180</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
@@ -7828,7 +7828,7 @@
         <v>181</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
@@ -7839,7 +7839,7 @@
         <v>182</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
@@ -7850,7 +7850,7 @@
         <v>183</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
@@ -7861,7 +7861,7 @@
         <v>184</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
@@ -7872,7 +7872,7 @@
         <v>185</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
@@ -7883,7 +7883,7 @@
         <v>186</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
@@ -7894,7 +7894,7 @@
         <v>187</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
@@ -7905,7 +7905,7 @@
         <v>188</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
@@ -7916,7 +7916,7 @@
         <v>189</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
@@ -7927,7 +7927,7 @@
         <v>190</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>191</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
@@ -7949,7 +7949,7 @@
         <v>192</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
@@ -7960,7 +7960,7 @@
         <v>193</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
@@ -7971,7 +7971,7 @@
         <v>194</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
@@ -7982,7 +7982,7 @@
         <v>195</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>196</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
@@ -8004,7 +8004,7 @@
         <v>197</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
@@ -8015,7 +8015,7 @@
         <v>198</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
@@ -8026,7 +8026,7 @@
         <v>199</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
@@ -8037,7 +8037,7 @@
         <v>200</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
@@ -8048,7 +8048,7 @@
         <v>201</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
@@ -8059,7 +8059,7 @@
         <v>202</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
@@ -8070,7 +8070,7 @@
         <v>203</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
@@ -8081,7 +8081,7 @@
         <v>204</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
@@ -8092,7 +8092,7 @@
         <v>205</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
@@ -8103,7 +8103,7 @@
         <v>206</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
@@ -8114,7 +8114,7 @@
         <v>207</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
@@ -8125,7 +8125,7 @@
         <v>208</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
@@ -8136,7 +8136,7 @@
         <v>209</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
@@ -8147,7 +8147,7 @@
         <v>210</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
@@ -8158,7 +8158,7 @@
         <v>211</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
@@ -8169,7 +8169,7 @@
         <v>212</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
@@ -8180,7 +8180,7 @@
         <v>213</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>214</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
@@ -8202,7 +8202,7 @@
         <v>215</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
@@ -8213,7 +8213,7 @@
         <v>216</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -8307,22 +8307,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -8333,574 +8333,574 @@
         <v>332</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>562</v>
-      </c>
       <c r="E2" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>571</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B16" s="5"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B25" s="5"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="18" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B29" s="5"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="18" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="18" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B33" s="5"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B35" s="5"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B36" s="5"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B37" s="5"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B38" s="5"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B39" s="5"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B40" s="5"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B41" s="5"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B43" s="5"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B45" s="5"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B51" s="5"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B52" s="5"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B53" s="5"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="18" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B54" s="5"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B55" s="5"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B58" s="5"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B59" s="5"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B60" s="5"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="18" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="18" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="18" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -8956,50 +8956,50 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>657</v>
-      </c>
       <c r="L1" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M1" s="27" t="s">
+        <v>700</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>701</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>702</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>703</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>704</v>
       </c>
       <c r="Q1" s="27"/>
     </row>
@@ -9008,13 +9008,13 @@
         <v>331</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>217</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>353</v>
@@ -9032,25 +9032,25 @@
         <v>334</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>572</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>698</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="15" t="s">
         <v>699</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -9058,7 +9058,7 @@
         <v>343</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
@@ -9167,25 +9167,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -9193,7 +9193,7 @@
         <v>331</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>367</v>
@@ -9260,18 +9260,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>754</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22704" windowHeight="11676" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8230"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -2614,55 +2614,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t># ファイル名をカンマで区切って記入します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データ転送時に不具合が発生する可能性があるため、できるだけ１ファイルにまとめてください。また、ファイル名に空白を含めないでください。</t>
-    </r>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Study に関連するキーワード（疾患名や手法等）を名前と値のペアで記載します。検索性を向上させるためにもできるだけ記載してください。</t>
     <rPh sb="9" eb="11">
       <t>カンレン</t>
@@ -3757,61 +3708,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t># シークエンシングデータファイル名をカンマで区切って記入します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>転送時に不具合が発生する可能性があるため，できるだけ 1 Data あたりのファイル数を少なくしてください。また、ファイル名に空白を含めないでください。</t>
-    </r>
-    <rPh sb="17" eb="18">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>フグアイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>スク</t>
-    </rPh>
-    <rPh sb="94" eb="95">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="99" eb="100">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Data/Analysis オブジェクトに登録するファイル名に空白を含めないでください。</t>
     <rPh sb="21" eb="23">
       <t>トウロク</t>
@@ -3981,6 +3877,89 @@
   </si>
   <si>
     <t>NBDC Number (hum)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t># シークエンシングデータファイル名をカンマで区切って記入します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>利便性のため，できるだけ 1 Data あたりのファイル数を少なくしてください。また、ファイル名に空白を含めないでください。</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リベン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t># ファイル名をカンマで区切って記入します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>利便性のため、できるだけ１ファイルにまとめてください。また、ファイル名に空白を含めないでください。</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>リベンセイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>フク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4521,99 +4500,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="126.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="11" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A4" s="11" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A5" s="11" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A6" s="30" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A12" s="4" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4621,32 +4600,32 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="13">
         <v>44103</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>587</v>
       </c>
@@ -4654,65 +4633,65 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B29" s="13">
         <v>42429</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B30" s="13">
         <v>42430</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B31" s="13">
         <v>42486</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B32" s="13">
         <v>42760</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B33" s="13">
         <v>42935</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B34" s="13">
         <v>42935</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B35" s="13">
         <v>43227</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B36" s="13">
         <v>44103</v>
@@ -4741,26 +4720,26 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="7" t="s">
         <v>244</v>
       </c>
@@ -4789,7 +4768,7 @@
         <v>362</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>335</v>
@@ -4801,13 +4780,13 @@
         <v>335</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -4848,10 +4827,10 @@
         <v>576</v>
       </c>
       <c r="N2" s="24" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>229</v>
       </c>
@@ -4880,7 +4859,7 @@
         <v>357</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>336</v>
@@ -4892,10 +4871,10 @@
         <v>575</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>230</v>
       </c>
@@ -4918,7 +4897,7 @@
         <v>358</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>378</v>
@@ -4927,10 +4906,10 @@
         <v>578</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
@@ -4947,13 +4926,13 @@
         <v>304</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>359</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>379</v>
@@ -4962,10 +4941,10 @@
         <v>564</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
         <v>232</v>
       </c>
@@ -4979,7 +4958,7 @@
         <v>283</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>360</v>
@@ -4994,10 +4973,10 @@
         <v>371</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>233</v>
       </c>
@@ -5017,7 +4996,7 @@
         <v>361</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>340</v>
@@ -5026,10 +5005,10 @@
         <v>372</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
         <v>234</v>
       </c>
@@ -5046,22 +5025,22 @@
         <v>306</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>373</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>235</v>
       </c>
@@ -5075,22 +5054,22 @@
         <v>307</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>374</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="s">
         <v>236</v>
       </c>
@@ -5101,25 +5080,25 @@
         <v>287</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>579</v>
       </c>
       <c r="N10" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>237</v>
       </c>
@@ -5142,24 +5121,24 @@
         <v>580</v>
       </c>
       <c r="N11" s="24" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>309</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>342</v>
@@ -5168,10 +5147,10 @@
         <v>581</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>239</v>
       </c>
@@ -5179,13 +5158,13 @@
         <v>255</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>310</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>381</v>
@@ -5194,10 +5173,10 @@
         <v>375</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="s">
         <v>240</v>
       </c>
@@ -5205,7 +5184,7 @@
         <v>254</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>311</v>
@@ -5220,18 +5199,18 @@
         <v>376</v>
       </c>
       <c r="N14" s="24" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>312</v>
@@ -5243,18 +5222,18 @@
         <v>565</v>
       </c>
       <c r="N15" s="24" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A16" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>313</v>
@@ -5266,10 +5245,10 @@
         <v>566</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A17" s="1" t="s">
         <v>243</v>
       </c>
@@ -5286,12 +5265,12 @@
         <v>385</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B18" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>290</v>
@@ -5303,15 +5282,15 @@
         <v>386</v>
       </c>
       <c r="N18" s="24" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B19" s="1" t="s">
         <v>258</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>316</v>
@@ -5320,12 +5299,12 @@
         <v>387</v>
       </c>
       <c r="N19" s="24" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B20" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>291</v>
@@ -5337,46 +5316,46 @@
         <v>388</v>
       </c>
       <c r="N20" s="24" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B21" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>292</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>389</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B22" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>390</v>
       </c>
       <c r="N22" s="24" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B23" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>293</v>
@@ -5388,12 +5367,12 @@
         <v>391</v>
       </c>
       <c r="N23" s="24" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B24" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>294</v>
@@ -5405,12 +5384,12 @@
         <v>392</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B25" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>295</v>
@@ -5422,10 +5401,10 @@
         <v>393</v>
       </c>
       <c r="N25" s="24" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B26" s="1" t="s">
         <v>259</v>
       </c>
@@ -5439,10 +5418,10 @@
         <v>394</v>
       </c>
       <c r="N26" s="24" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B27" s="1" t="s">
         <v>260</v>
       </c>
@@ -5456,10 +5435,10 @@
         <v>395</v>
       </c>
       <c r="N27" s="24" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B28" s="1" t="s">
         <v>261</v>
       </c>
@@ -5473,7 +5452,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B29" s="1" t="s">
         <v>262</v>
       </c>
@@ -5481,13 +5460,13 @@
         <v>299</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B30" s="1" t="s">
         <v>263</v>
       </c>
@@ -5501,7 +5480,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B31" s="1" t="s">
         <v>264</v>
       </c>
@@ -5512,10 +5491,10 @@
         <v>325</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B32" s="1" t="s">
         <v>265</v>
       </c>
@@ -5526,7 +5505,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B33" s="1" t="s">
         <v>266</v>
       </c>
@@ -5534,43 +5513,43 @@
         <v>327</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B34" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B35" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B36" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B36" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B37" s="1" t="s">
         <v>267</v>
       </c>
@@ -5578,95 +5557,95 @@
         <v>278</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B38" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B39" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B40" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B40" s="1" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B41" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B42" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B43" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B43" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B44" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B45" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B46" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B47" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
-      <c r="B47" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B48" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B49" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B49" s="1" t="s">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B50" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B51" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B52" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B52" s="1" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B53" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B54" s="1" t="s">
         <v>678</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.5">
-      <c r="B54" s="1" t="s">
-        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -5684,54 +5663,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="24.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6640625" style="1"/>
+    <col min="4" max="4" width="43.08984375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" s="26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -5751,7 +5730,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" s="12" t="s">
         <v>410</v>
       </c>
@@ -5771,63 +5750,63 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" s="6">
         <v>2</v>
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A17" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A18" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A19" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A20" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A22" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A23" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A24" s="13">
         <v>43623</v>
       </c>
@@ -5860,38 +5839,38 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="1"/>
-    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6640625" style="1"/>
+    <col min="1" max="1" width="48.6328125" style="1"/>
+    <col min="2" max="2" width="61.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -5902,197 +5881,197 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A8" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A9" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A13" s="9"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A14" s="22"/>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A16" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A18" s="6">
         <v>2</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A19" s="6">
         <v>3</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A20" s="22"/>
     </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="87" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="87.5" x14ac:dyDescent="0.6">
       <c r="A21" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>737</v>
       </c>
-      <c r="B21" s="29" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A22" s="3" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="3" t="s">
-        <v>739</v>
-      </c>
       <c r="B22" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A23" s="6">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A24" s="6">
         <v>2</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A25" s="6">
         <v>3</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" s="15" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" s="9"/>
     </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="52.2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" s="5" customFormat="1" ht="52.5" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>735</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" s="23" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>739</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>740</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" s="6">
         <v>2</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" s="6">
         <v>3</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" s="5"/>
     </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A36" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" s="23" t="s">
         <v>12</v>
       </c>
@@ -6103,35 +6082,35 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A39" s="6">
         <v>2</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" s="6">
         <v>3</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -6148,35 +6127,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" s="6">
         <v>2</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" s="6">
         <v>3</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -6184,52 +6163,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A50" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A51" s="6">
         <v>2</v>
       </c>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A52" s="6">
         <v>3</v>
       </c>
       <c r="B52" s="5"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A54" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A55" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A56" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A57" s="6">
         <v>2</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A58" s="6">
         <v>3</v>
       </c>
@@ -6272,29 +6251,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="18"/>
-    <col min="2" max="2" width="24.88671875" style="1"/>
-    <col min="3" max="3" width="24.88671875" style="25"/>
-    <col min="4" max="4" width="24.88671875" style="20"/>
-    <col min="5" max="6" width="24.88671875" style="1"/>
-    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.88671875" style="1"/>
+    <col min="1" max="1" width="24.90625" style="18"/>
+    <col min="2" max="2" width="24.90625" style="1"/>
+    <col min="3" max="3" width="24.90625" style="25"/>
+    <col min="4" max="4" width="24.90625" style="20"/>
+    <col min="5" max="6" width="24.90625" style="1"/>
+    <col min="7" max="7" width="49.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>439</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>567</v>
@@ -6303,25 +6282,25 @@
         <v>438</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="L1" s="19" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -6341,636 +6320,636 @@
         <v>354</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>642</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>643</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A7" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A8" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A13" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A15" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A16" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A17" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A18" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A19" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A20" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A21" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A22" s="18" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A23" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A24" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A26" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A27" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A29" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A30" s="18" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A31" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A32" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A33" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A34" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A35" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A36" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A37" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A38" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A39" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A40" s="18" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A41" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A42" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A43" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A44" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A45" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A46" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A47" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A48" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A49" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A50" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="21"/>
       <c r="D50" s="21"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A51" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A52" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A53" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="21"/>
       <c r="D53" s="21"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A54" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="21"/>
       <c r="D54" s="21"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A55" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A56" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A57" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A58" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C58" s="21"/>
       <c r="D58" s="21"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A59" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C59" s="21"/>
       <c r="D59" s="21"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A60" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C60" s="21"/>
       <c r="D60" s="21"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A61" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A62" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A63" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A64" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A65" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A66" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A67" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A68" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A69" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A70" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A71" s="18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A72" s="18" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A73" s="18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A74" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A75" s="18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A76" s="18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A77" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A78" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A79" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A80" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A81" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A82" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A83" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A84" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A85" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A86" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A87" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A88" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A89" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A90" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A91" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A92" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A93" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A94" s="18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A95" s="18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A96" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A97" s="18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A98" s="18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A99" s="18" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A100" s="18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A101" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A102" s="18" t="s">
         <v>116</v>
       </c>
@@ -6995,35 +6974,35 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="36.109375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.08984375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="59.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>441</v>
       </c>
@@ -7034,7 +7013,7 @@
         <v>568</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>444</v>
@@ -7046,7 +7025,7 @@
         <v>412</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>558</v>
@@ -7066,7 +7045,7 @@
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -7077,7 +7056,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>218</v>
@@ -7119,7 +7098,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="18" t="s">
         <v>117</v>
       </c>
@@ -7130,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
         <v>118</v>
       </c>
@@ -7141,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" s="18" t="s">
         <v>119</v>
       </c>
@@ -7152,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
         <v>120</v>
       </c>
@@ -7163,7 +7142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="18" t="s">
         <v>121</v>
       </c>
@@ -7174,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="18" t="s">
         <v>122</v>
       </c>
@@ -7185,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="18" t="s">
         <v>123</v>
       </c>
@@ -7196,7 +7175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="18" t="s">
         <v>124</v>
       </c>
@@ -7207,7 +7186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="18" t="s">
         <v>125</v>
       </c>
@@ -7218,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="18" t="s">
         <v>126</v>
       </c>
@@ -7229,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A13" s="18" t="s">
         <v>127</v>
       </c>
@@ -7240,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A14" s="18" t="s">
         <v>128</v>
       </c>
@@ -7251,7 +7230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A15" s="18" t="s">
         <v>129</v>
       </c>
@@ -7262,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A16" s="18" t="s">
         <v>130</v>
       </c>
@@ -7273,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A17" s="18" t="s">
         <v>131</v>
       </c>
@@ -7284,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A18" s="18" t="s">
         <v>132</v>
       </c>
@@ -7295,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A19" s="18" t="s">
         <v>133</v>
       </c>
@@ -7306,7 +7285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A20" s="18" t="s">
         <v>134</v>
       </c>
@@ -7317,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A21" s="18" t="s">
         <v>135</v>
       </c>
@@ -7328,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A22" s="18" t="s">
         <v>136</v>
       </c>
@@ -7339,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A23" s="18" t="s">
         <v>137</v>
       </c>
@@ -7350,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A24" s="18" t="s">
         <v>138</v>
       </c>
@@ -7361,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A25" s="18" t="s">
         <v>139</v>
       </c>
@@ -7372,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A26" s="18" t="s">
         <v>140</v>
       </c>
@@ -7383,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A27" s="18" t="s">
         <v>141</v>
       </c>
@@ -7394,7 +7373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A28" s="18" t="s">
         <v>142</v>
       </c>
@@ -7405,7 +7384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A29" s="18" t="s">
         <v>143</v>
       </c>
@@ -7416,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A30" s="18" t="s">
         <v>144</v>
       </c>
@@ -7427,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A31" s="18" t="s">
         <v>145</v>
       </c>
@@ -7438,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A32" s="18" t="s">
         <v>146</v>
       </c>
@@ -7449,7 +7428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A33" s="18" t="s">
         <v>147</v>
       </c>
@@ -7460,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A34" s="18" t="s">
         <v>148</v>
       </c>
@@ -7471,7 +7450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A35" s="18" t="s">
         <v>149</v>
       </c>
@@ -7482,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A36" s="18" t="s">
         <v>150</v>
       </c>
@@ -7493,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A37" s="18" t="s">
         <v>151</v>
       </c>
@@ -7504,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A38" s="18" t="s">
         <v>152</v>
       </c>
@@ -7515,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A39" s="18" t="s">
         <v>153</v>
       </c>
@@ -7526,7 +7505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A40" s="18" t="s">
         <v>154</v>
       </c>
@@ -7537,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A41" s="18" t="s">
         <v>155</v>
       </c>
@@ -7548,7 +7527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A42" s="18" t="s">
         <v>156</v>
       </c>
@@ -7559,7 +7538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A43" s="18" t="s">
         <v>157</v>
       </c>
@@ -7570,7 +7549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A44" s="18" t="s">
         <v>158</v>
       </c>
@@ -7581,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A45" s="18" t="s">
         <v>159</v>
       </c>
@@ -7592,7 +7571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A46" s="18" t="s">
         <v>160</v>
       </c>
@@ -7603,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A47" s="18" t="s">
         <v>161</v>
       </c>
@@ -7614,7 +7593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A48" s="18" t="s">
         <v>162</v>
       </c>
@@ -7625,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A49" s="18" t="s">
         <v>163</v>
       </c>
@@ -7636,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A50" s="18" t="s">
         <v>164</v>
       </c>
@@ -7647,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A51" s="18" t="s">
         <v>165</v>
       </c>
@@ -7658,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A52" s="18" t="s">
         <v>166</v>
       </c>
@@ -7669,7 +7648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A53" s="18" t="s">
         <v>167</v>
       </c>
@@ -7680,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A54" s="18" t="s">
         <v>168</v>
       </c>
@@ -7691,7 +7670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A55" s="18" t="s">
         <v>169</v>
       </c>
@@ -7702,7 +7681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A56" s="18" t="s">
         <v>170</v>
       </c>
@@ -7713,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A57" s="18" t="s">
         <v>171</v>
       </c>
@@ -7724,7 +7703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A58" s="18" t="s">
         <v>172</v>
       </c>
@@ -7735,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A59" s="18" t="s">
         <v>173</v>
       </c>
@@ -7746,7 +7725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A60" s="18" t="s">
         <v>174</v>
       </c>
@@ -7757,7 +7736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A61" s="18" t="s">
         <v>175</v>
       </c>
@@ -7768,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A62" s="18" t="s">
         <v>176</v>
       </c>
@@ -7779,7 +7758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A63" s="18" t="s">
         <v>177</v>
       </c>
@@ -7790,7 +7769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A64" s="18" t="s">
         <v>178</v>
       </c>
@@ -7801,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A65" s="18" t="s">
         <v>179</v>
       </c>
@@ -7812,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A66" s="18" t="s">
         <v>180</v>
       </c>
@@ -7823,7 +7802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A67" s="18" t="s">
         <v>181</v>
       </c>
@@ -7834,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A68" s="18" t="s">
         <v>182</v>
       </c>
@@ -7845,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A69" s="18" t="s">
         <v>183</v>
       </c>
@@ -7856,7 +7835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A70" s="18" t="s">
         <v>184</v>
       </c>
@@ -7867,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A71" s="18" t="s">
         <v>185</v>
       </c>
@@ -7878,7 +7857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A72" s="18" t="s">
         <v>186</v>
       </c>
@@ -7889,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A73" s="18" t="s">
         <v>187</v>
       </c>
@@ -7900,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A74" s="18" t="s">
         <v>188</v>
       </c>
@@ -7911,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A75" s="18" t="s">
         <v>189</v>
       </c>
@@ -7922,7 +7901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A76" s="18" t="s">
         <v>190</v>
       </c>
@@ -7933,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A77" s="18" t="s">
         <v>191</v>
       </c>
@@ -7944,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A78" s="18" t="s">
         <v>192</v>
       </c>
@@ -7955,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A79" s="18" t="s">
         <v>193</v>
       </c>
@@ -7966,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A80" s="18" t="s">
         <v>194</v>
       </c>
@@ -7977,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A81" s="18" t="s">
         <v>195</v>
       </c>
@@ -7988,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A82" s="18" t="s">
         <v>196</v>
       </c>
@@ -7999,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A83" s="18" t="s">
         <v>197</v>
       </c>
@@ -8010,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A84" s="18" t="s">
         <v>198</v>
       </c>
@@ -8021,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A85" s="18" t="s">
         <v>199</v>
       </c>
@@ -8032,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A86" s="18" t="s">
         <v>200</v>
       </c>
@@ -8043,7 +8022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A87" s="18" t="s">
         <v>201</v>
       </c>
@@ -8054,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A88" s="18" t="s">
         <v>202</v>
       </c>
@@ -8065,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A89" s="18" t="s">
         <v>203</v>
       </c>
@@ -8076,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A90" s="18" t="s">
         <v>204</v>
       </c>
@@ -8087,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A91" s="18" t="s">
         <v>205</v>
       </c>
@@ -8098,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A92" s="18" t="s">
         <v>206</v>
       </c>
@@ -8109,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A93" s="18" t="s">
         <v>207</v>
       </c>
@@ -8120,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A94" s="18" t="s">
         <v>208</v>
       </c>
@@ -8131,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A95" s="18" t="s">
         <v>209</v>
       </c>
@@ -8142,7 +8121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A96" s="18" t="s">
         <v>210</v>
       </c>
@@ -8153,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A97" s="18" t="s">
         <v>211</v>
       </c>
@@ -8164,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A98" s="18" t="s">
         <v>212</v>
       </c>
@@ -8175,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A99" s="18" t="s">
         <v>213</v>
       </c>
@@ -8186,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A100" s="18" t="s">
         <v>214</v>
       </c>
@@ -8197,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A101" s="18" t="s">
         <v>215</v>
       </c>
@@ -8208,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.6">
       <c r="A102" s="18" t="s">
         <v>216</v>
       </c>
@@ -8291,21 +8270,21 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="38" style="18" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="51.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.08984375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>445</v>
       </c>
@@ -8313,7 +8292,7 @@
         <v>546</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>418</v>
@@ -8325,7 +8304,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
@@ -8345,560 +8324,560 @@
         <v>571</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3" s="18" t="s">
         <v>446</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A4" s="18" t="s">
         <v>447</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A5" s="18" t="s">
         <v>448</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A6" s="18" t="s">
         <v>449</v>
       </c>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A7" s="18" t="s">
         <v>450</v>
       </c>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A8" s="18" t="s">
         <v>451</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A9" s="18" t="s">
         <v>452</v>
       </c>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A10" s="18" t="s">
         <v>453</v>
       </c>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A11" s="18" t="s">
         <v>454</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A12" s="18" t="s">
         <v>455</v>
       </c>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A13" s="18" t="s">
         <v>456</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A14" s="18" t="s">
         <v>457</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A15" s="18" t="s">
         <v>458</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A16" s="18" t="s">
         <v>459</v>
       </c>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A17" s="18" t="s">
         <v>460</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A18" s="18" t="s">
         <v>461</v>
       </c>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A19" s="18" t="s">
         <v>462</v>
       </c>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A20" s="18" t="s">
         <v>463</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A21" s="18" t="s">
         <v>464</v>
       </c>
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A22" s="18" t="s">
         <v>465</v>
       </c>
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A23" s="18" t="s">
         <v>466</v>
       </c>
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A24" s="18" t="s">
         <v>467</v>
       </c>
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="18" t="s">
         <v>468</v>
       </c>
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A26" s="18" t="s">
         <v>469</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A27" s="18" t="s">
         <v>470</v>
       </c>
       <c r="B27" s="5"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A28" s="18" t="s">
         <v>471</v>
       </c>
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A29" s="18" t="s">
         <v>472</v>
       </c>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A30" s="18" t="s">
         <v>473</v>
       </c>
       <c r="B30" s="5"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A31" s="18" t="s">
         <v>474</v>
       </c>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A32" s="18" t="s">
         <v>475</v>
       </c>
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A33" s="18" t="s">
         <v>476</v>
       </c>
       <c r="B33" s="5"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A34" s="18" t="s">
         <v>477</v>
       </c>
       <c r="B34" s="5"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A35" s="18" t="s">
         <v>478</v>
       </c>
       <c r="B35" s="5"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A36" s="18" t="s">
         <v>479</v>
       </c>
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A37" s="18" t="s">
         <v>480</v>
       </c>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A38" s="18" t="s">
         <v>481</v>
       </c>
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A39" s="18" t="s">
         <v>482</v>
       </c>
       <c r="B39" s="5"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A40" s="18" t="s">
         <v>483</v>
       </c>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A41" s="18" t="s">
         <v>484</v>
       </c>
       <c r="B41" s="5"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A42" s="18" t="s">
         <v>485</v>
       </c>
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A43" s="18" t="s">
         <v>486</v>
       </c>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A44" s="18" t="s">
         <v>487</v>
       </c>
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A45" s="18" t="s">
         <v>488</v>
       </c>
       <c r="B45" s="5"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A46" s="18" t="s">
         <v>489</v>
       </c>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A47" s="18" t="s">
         <v>490</v>
       </c>
       <c r="B47" s="5"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A48" s="18" t="s">
         <v>491</v>
       </c>
       <c r="B48" s="5"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A49" s="18" t="s">
         <v>492</v>
       </c>
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A50" s="18" t="s">
         <v>493</v>
       </c>
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A51" s="18" t="s">
         <v>494</v>
       </c>
       <c r="B51" s="5"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A52" s="18" t="s">
         <v>495</v>
       </c>
       <c r="B52" s="5"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A53" s="18" t="s">
         <v>496</v>
       </c>
       <c r="B53" s="5"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A54" s="18" t="s">
         <v>497</v>
       </c>
       <c r="B54" s="5"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A55" s="18" t="s">
         <v>498</v>
       </c>
       <c r="B55" s="5"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A56" s="18" t="s">
         <v>499</v>
       </c>
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A57" s="18" t="s">
         <v>500</v>
       </c>
       <c r="B57" s="5"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A58" s="18" t="s">
         <v>501</v>
       </c>
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A59" s="18" t="s">
         <v>502</v>
       </c>
       <c r="B59" s="5"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A60" s="18" t="s">
         <v>503</v>
       </c>
       <c r="B60" s="5"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A61" s="18" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A62" s="18" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A63" s="18" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A64" s="18" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A65" s="18" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A66" s="18" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A67" s="18" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A68" s="18" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A69" s="18" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A70" s="18" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A71" s="18" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A72" s="18" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A73" s="18" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A74" s="18" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A75" s="18" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A76" s="18" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A77" s="18" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A78" s="18" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A79" s="18" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A80" s="18" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A81" s="18" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A82" s="18" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A83" s="18" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A84" s="18" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A85" s="18" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A86" s="18" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A87" s="18" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A88" s="18" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A89" s="18" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A90" s="18" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A91" s="18" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A92" s="18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A93" s="18" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A94" s="18" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A95" s="18" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A96" s="18" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A97" s="18" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A98" s="18" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A99" s="18" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A100" s="18" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A101" s="18" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A102" s="18" t="s">
         <v>545</v>
       </c>
@@ -8929,32 +8908,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="47.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6328125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="47.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="60.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="42.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>549</v>
       </c>
@@ -8977,33 +8956,33 @@
         <v>418</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>594</v>
+        <v>759</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>656</v>
-      </c>
       <c r="L1" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M1" s="27" t="s">
+        <v>699</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>700</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>701</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>702</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>703</v>
-      </c>
       <c r="Q1" s="27"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
@@ -9038,70 +9017,70 @@
         <v>571</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>343</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A6" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A7" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A8" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A9" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A10" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A11" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
       <c r="A12" s="18" t="s">
         <v>352</v>
       </c>
@@ -9160,23 +9139,23 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="28.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="28.109375" style="1"/>
+    <col min="1" max="16384" width="28.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>419</v>
@@ -9188,7 +9167,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>331</v>
       </c>
@@ -9211,12 +9190,12 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="6" t="s">
         <v>366</v>
       </c>
@@ -9251,27 +9230,27 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.33203125" style="1"/>
+    <col min="2" max="2" width="73.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A2" s="26" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="5210"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="792">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -3961,6 +3961,111 @@
       <t>フク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JGA xsd 1.2.0 に対応</t>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ABUNDANCE_MEASUREMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>METABOLOMICS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PROTEOMICS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIOCHEMICAL_ASSAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OTHER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGISEQ-500</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>Sequel II</t>
+  </si>
+  <si>
+    <t>MGISEQ-2000RS</t>
+  </si>
+  <si>
+    <t>NextSeq 1000</t>
+  </si>
+  <si>
+    <t>NextSeq 2000</t>
+  </si>
+  <si>
+    <t>Ion GeneStudio S5</t>
+  </si>
+  <si>
+    <t>Ion GeneStudio S5 plus</t>
+  </si>
+  <si>
+    <t>Ion GeneStudio S5 prime</t>
+  </si>
+  <si>
+    <t>NOMe-Seq</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>processed_array_data</t>
+  </si>
+  <si>
+    <t>raw_metabolomics_data</t>
+  </si>
+  <si>
+    <t>processed_metabolomics_data</t>
+  </si>
+  <si>
+    <t>metabolite_assignment_file</t>
+  </si>
+  <si>
+    <t>raw_proteomics_data</t>
+  </si>
+  <si>
+    <t>processed_proteomics_data</t>
+  </si>
+  <si>
+    <t>mzML</t>
+  </si>
+  <si>
+    <t>mzXML</t>
+  </si>
+  <si>
+    <t>nmrML</t>
+  </si>
+  <si>
+    <t>idf</t>
+  </si>
+  <si>
+    <t>sdrf</t>
+  </si>
+  <si>
+    <t>metadata</t>
   </si>
 </sst>
 </file>
@@ -4498,11 +4603,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -4617,7 +4720,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A25" s="13">
-        <v>44103</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.6">
@@ -4695,6 +4798,14 @@
       </c>
       <c r="B36" s="13">
         <v>44103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A37" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B37" s="13">
+        <v>44622</v>
       </c>
     </row>
   </sheetData>
@@ -4703,7 +4814,7 @@
     <hyperlink ref="A12" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4714,11 +4825,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -4812,7 +4921,7 @@
         <v>337</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>356</v>
+        <v>761</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>330</v>
@@ -4856,13 +4965,13 @@
         <v>336</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>706</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>336</v>
+        <v>778</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>577</v>
@@ -4894,13 +5003,13 @@
         <v>338</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>707</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>378</v>
+        <v>779</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>578</v>
@@ -4929,13 +5038,13 @@
         <v>653</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>708</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>564</v>
@@ -4961,13 +5070,13 @@
         <v>679</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>371</v>
@@ -4993,13 +5102,13 @@
         <v>305</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>709</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>372</v>
@@ -5025,13 +5134,13 @@
         <v>306</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>728</v>
+        <v>361</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>710</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>715</v>
+        <v>380</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>373</v>
@@ -5054,13 +5163,13 @@
         <v>307</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>711</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>716</v>
+        <v>340</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>374</v>
@@ -5083,13 +5192,13 @@
         <v>680</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>712</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>579</v>
@@ -5111,11 +5220,14 @@
       <c r="E11" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>763</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>329</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>341</v>
+        <v>716</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>580</v>
@@ -5137,11 +5249,14 @@
       <c r="E12" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>764</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>713</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>342</v>
+        <v>717</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>581</v>
@@ -5163,11 +5278,14 @@
       <c r="E13" s="1" t="s">
         <v>310</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>729</v>
+      </c>
       <c r="J13" s="1" t="s">
         <v>714</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>375</v>
@@ -5189,11 +5307,14 @@
       <c r="E14" s="1" t="s">
         <v>311</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>730</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>376</v>
@@ -5215,8 +5336,11 @@
       <c r="E15" s="1" t="s">
         <v>312</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>765</v>
+      </c>
       <c r="K15" s="1" t="s">
-        <v>383</v>
+        <v>780</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>565</v>
@@ -5239,7 +5363,7 @@
         <v>313</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>566</v>
@@ -5262,7 +5386,7 @@
         <v>314</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>385</v>
+        <v>781</v>
       </c>
       <c r="N17" s="24" t="s">
         <v>629</v>
@@ -5279,7 +5403,7 @@
         <v>315</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>386</v>
+        <v>782</v>
       </c>
       <c r="N18" s="24" t="s">
         <v>630</v>
@@ -5296,7 +5420,7 @@
         <v>316</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>387</v>
+        <v>783</v>
       </c>
       <c r="N19" s="24" t="s">
         <v>631</v>
@@ -5313,7 +5437,7 @@
         <v>317</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>388</v>
+        <v>784</v>
       </c>
       <c r="N20" s="24" t="s">
         <v>632</v>
@@ -5330,7 +5454,7 @@
         <v>681</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>389</v>
+        <v>785</v>
       </c>
       <c r="N21" s="24" t="s">
         <v>633</v>
@@ -5347,7 +5471,7 @@
         <v>682</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="N22" s="24" t="s">
         <v>634</v>
@@ -5364,7 +5488,7 @@
         <v>318</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="N23" s="24" t="s">
         <v>635</v>
@@ -5381,7 +5505,7 @@
         <v>319</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="N24" s="24" t="s">
         <v>636</v>
@@ -5398,7 +5522,7 @@
         <v>320</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="N25" s="24" t="s">
         <v>637</v>
@@ -5406,7 +5530,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B26" s="1" t="s">
-        <v>259</v>
+        <v>772</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>296</v>
@@ -5415,7 +5539,7 @@
         <v>321</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>394</v>
+        <v>786</v>
       </c>
       <c r="N26" s="24" t="s">
         <v>638</v>
@@ -5423,7 +5547,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B27" s="1" t="s">
-        <v>260</v>
+        <v>773</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>297</v>
@@ -5432,7 +5556,7 @@
         <v>322</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>395</v>
+        <v>787</v>
       </c>
       <c r="N27" s="24" t="s">
         <v>639</v>
@@ -5440,7 +5564,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B28" s="1" t="s">
-        <v>261</v>
+        <v>766</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>298</v>
@@ -5449,12 +5573,12 @@
         <v>323</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>396</v>
+        <v>788</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B29" s="1" t="s">
-        <v>262</v>
+        <v>767</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>299</v>
@@ -5463,12 +5587,12 @@
         <v>691</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B30" s="1" t="s">
-        <v>263</v>
+        <v>768</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>300</v>
@@ -5477,12 +5601,12 @@
         <v>324</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B31" s="1" t="s">
-        <v>264</v>
+        <v>769</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>271</v>
@@ -5491,160 +5615,260 @@
         <v>325</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>718</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.6">
       <c r="B32" s="1" t="s">
-        <v>265</v>
+        <v>771</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>326</v>
+        <v>777</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B33" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>719</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B34" s="1" t="s">
-        <v>664</v>
+        <v>260</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>685</v>
+        <v>327</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>720</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B35" s="1" t="s">
-        <v>665</v>
+        <v>261</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>721</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B36" s="1" t="s">
-        <v>666</v>
+        <v>262</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>722</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B37" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>278</v>
+        <v>684</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>723</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B38" s="1" t="s">
-        <v>667</v>
+        <v>264</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>300</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B39" s="1" t="s">
-        <v>668</v>
+        <v>265</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B40" s="1" t="s">
-        <v>669</v>
+        <v>266</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B41" s="1" t="s">
-        <v>268</v>
+        <v>664</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B42" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B43" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B44" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B45" s="1" t="s">
-        <v>270</v>
+        <v>667</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B46" s="1" t="s">
-        <v>725</v>
+        <v>668</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B47" s="1" t="s">
-        <v>726</v>
+        <v>669</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.6">
       <c r="B48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B49" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B50" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B51" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B53" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B54" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B55" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B56" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B57" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B58" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B59" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B49" s="1" t="s">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B60" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B50" s="1" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B61" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B51" s="1" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B62" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B52" s="1" t="s">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B63" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B53" s="1" t="s">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
+      <c r="B64" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B54" s="1" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
+      <c r="B65" s="1" t="s">
         <v>678</v>
       </c>
     </row>
@@ -6970,8 +7194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
@@ -8240,21 +8464,21 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$E$2:$E$37</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3:I102</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Admin!$J$2:$J$6</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$B$2:$B$54</xm:f>
+            <xm:f>Admin!$B$2:$B$65</xm:f>
           </x14:formula1>
-          <xm:sqref>H3:H102</xm:sqref>
+          <xm:sqref>H3:H103</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Admin!$E$2:$E$38</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I103</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8908,9 +9132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
   <cols>
@@ -9100,12 +9322,6 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$I$2:$I$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
             <xm:f>Admin!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I34:I100</xm:sqref>
@@ -9118,7 +9334,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>Admin!$K$2:$K$38</xm:f>
+            <xm:f>Admin!$I$2:$I$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>G3:G12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Admin!$K$2:$K$52</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I12</xm:sqref>
         </x14:dataValidation>

--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="5210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Analysis!$A$2:$P$12</definedName>
   </definedNames>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,13 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="807">
   <si>
     <t>E-mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hold/Release</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4067,12 +4063,161 @@
   <si>
     <t>metadata</t>
   </si>
+  <si>
+    <t>Analysis に属性と variation type 項目を追加。項目背景色を変更。</t>
+    <rPh sb="10" eb="12">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="35" eb="40">
+      <t>コウモクハイケイショク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hold/Release</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 解析に使用した機種の名前（例 HumanOmniExpressExome-8 v1.0 or v1.2）</t>
+    <rPh sb="2" eb="4">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 解析に使用したプログラムとバージョン（例 Eagle software v2.4.1, Minimac4 software v1.0.2）</t>
+    <rPh sb="2" eb="4">
+      <t>カイセキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># imputation した場合は TRUE。</t>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 項目がない付加情報を 名前:値; 名前:値; … の形式で記載します。
+例: analysis_date:2022-04-05; reference_database:dbSNP build 153</t>
+    <rPh sb="28" eb="30">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Variation: Experiment Type</t>
+  </si>
+  <si>
+    <t>Variation: Platform</t>
+  </si>
+  <si>
+    <t>Variation: Program</t>
+  </si>
+  <si>
+    <t>Variation: Imputation</t>
+  </si>
+  <si>
+    <t>Variation: Attributes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t># Variation の場合はここから右に記載:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> バリアント種別。50bp 以下の場合は Short genetic variations、以上の場合は Structural variations を選択します。</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Experiment Type</t>
+  </si>
+  <si>
+    <t>Imputation</t>
+  </si>
+  <si>
+    <t>Short genetic variations</t>
+  </si>
+  <si>
+    <t>Structural variations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4122,8 +4267,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4138,37 +4289,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAEEF3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDE9D9"/>
+        <fgColor rgb="FFFFCA80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFE4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84919E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4226,30 +4371,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4260,14 +4397,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4276,9 +4411,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -4298,6 +4445,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF84919E"/>
+      <color rgb="FFBFE4FF"/>
+      <color rgb="FFFFCA80"/>
       <color rgb="FFFDE9D9"/>
       <color rgb="FFDAEEF3"/>
       <color rgb="FF000000"/>
@@ -4603,209 +4753,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="126.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="8" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" s="11" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="8" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="22" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A3" s="11" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A4" s="11" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A5" s="11" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A6" s="30" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A12" s="4" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="23"/>
+      <c r="B16" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="24"/>
+      <c r="B17" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="25"/>
+      <c r="B18" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A18" s="6"/>
-      <c r="B18" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A25" s="13">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="9">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B28" s="9">
+        <v>42285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B29" s="9">
+        <v>42429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B30" s="9">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B31" s="9">
+        <v>42486</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B32" s="9">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B33" s="9">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B34" s="9">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B35" s="9">
+        <v>43227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B36" s="9">
+        <v>44103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B37" s="9">
         <v>44622</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A27" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A28" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B28" s="13">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A29" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="B29" s="13">
-        <v>42429</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A30" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B30" s="13">
-        <v>42430</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A31" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="B31" s="13">
-        <v>42486</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A32" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="B32" s="13">
-        <v>42760</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A33" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B33" s="13">
-        <v>42935</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A34" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="B34" s="13">
-        <v>42935</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A35" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B35" s="13">
-        <v>43227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A36" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="B36" s="13">
-        <v>44103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A37" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B37" s="13">
-        <v>44622</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B38" s="9">
+        <v>44678</v>
       </c>
     </row>
   </sheetData>
@@ -4827,1049 +4987,1064 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.90625" style="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="B3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="I3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K3" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L5" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="N6" s="17" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="N5" s="24" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="N15" s="17" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B18" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B20" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B21" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B22" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B23" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B24" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B25" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B26" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B27" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B28" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B29" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B30" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B31" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B32" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B34" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B36" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B37" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A10" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="K38" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B39" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B40" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B41" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B42" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A14" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A15" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A16" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="A17" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B43" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B44" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B45" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B46" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B47" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B49" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B50" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B51" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B53" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B54" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B19" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B20" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B21" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B22" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B23" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B24" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B25" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B26" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B55" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B56" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B28" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B29" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B30" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B31" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
-      <c r="B32" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B33" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B34" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B35" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B36" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B37" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B39" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B40" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B41" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B42" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B43" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B45" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B46" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B47" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B48" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B49" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B57" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B58" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B59" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B51" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B52" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B53" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B54" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B55" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B56" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B57" s="1" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B58" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B60" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B61" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B62" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B63" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B64" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B64" s="1" t="s">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B65" s="1" t="s">
         <v>677</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
-      <c r="B65" s="1" t="s">
-        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -5888,150 +6063,150 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6328125" style="1"/>
+    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="26" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="30" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A11" s="12" t="s">
-        <v>410</v>
-      </c>
       <c r="B11" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A12" s="6">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="31">
         <v>2</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="6">
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A14" s="6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A17" s="6">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="31">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A18" s="6">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="31">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A19" s="6">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="31">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A20" s="6">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="31">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="26" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A23" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A24" s="13">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" s="9">
         <v>43623</v>
       </c>
     </row>
@@ -6042,11 +6217,8 @@
       <formula1>"Hold,Release immediately"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="tkatagi@genome.tokushima-u.ac.jp"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6060,384 +6232,384 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" style="1"/>
-    <col min="2" max="2" width="61.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6328125" style="1"/>
+    <col min="1" max="1" width="48.6640625" style="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="31">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="31">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>731</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" s="31">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" s="31">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" s="31">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" s="27" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="52.2" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A31" s="28" t="s">
+        <v>740</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>738</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A32" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A33" s="31">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A34" s="31">
+        <v>3</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A37" s="28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" s="6">
+      <c r="B37" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A38" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A39" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A9" s="6">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A40" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A16" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A18" s="6">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A42" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A43" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A44" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A45" s="31">
         <v>2</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A19" s="6">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A46" s="31">
         <v>3</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="87.5" x14ac:dyDescent="0.6">
-      <c r="A21" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A22" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A24" s="6">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A48" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A49" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A50" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A51" s="31">
         <v>2</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A25" s="6">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A52" s="31">
         <v>3</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A27" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A28" s="15" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" s="5" customFormat="1" ht="52.5" x14ac:dyDescent="0.6">
-      <c r="A30" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A31" s="23" t="s">
-        <v>741</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>739</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A33" s="6">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A54" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A55" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A56" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A57" s="31">
         <v>2</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A34" s="6">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A58" s="31">
         <v>3</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A37" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A39" s="6">
-        <v>2</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A40" s="6">
-        <v>3</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A42" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A44" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A45" s="6">
-        <v>2</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A46" s="6">
-        <v>3</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A48" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A50" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A51" s="6">
-        <v>2</v>
-      </c>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A52" s="6">
-        <v>3</v>
-      </c>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A54" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A55" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A56" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A57" s="6">
-        <v>2</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A58" s="6">
-        <v>3</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6475,707 +6647,707 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="18"/>
-    <col min="2" max="2" width="24.90625" style="1"/>
-    <col min="3" max="3" width="24.90625" style="25"/>
-    <col min="4" max="4" width="24.90625" style="20"/>
-    <col min="5" max="6" width="24.90625" style="1"/>
-    <col min="7" max="7" width="49.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.90625" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="12"/>
+    <col min="2" max="2" width="24.88671875" style="1"/>
+    <col min="3" max="3" width="24.88671875" style="18"/>
+    <col min="4" max="4" width="24.88671875" style="14"/>
+    <col min="5" max="6" width="24.88671875" style="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>648</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" s="27" t="s">
+        <v>643</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>642</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>641</v>
+      </c>
+      <c r="L2" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A3" s="18" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A4" s="18" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A5" s="18" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A6" s="18" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A7" s="18" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A8" s="18" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A9" s="18" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A10" s="18" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A11" s="18" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A12" s="18" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A13" s="18" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A14" s="18" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A15" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A15" s="18" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A16" s="18" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A17" s="18" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A18" s="18" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A19" s="18" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A20" s="18" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A21" s="18" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A22" s="18" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A23" s="18" t="s">
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A24" s="18" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A25" s="18" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A26" s="18" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A27" s="18" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A28" s="18" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A29" s="18" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A30" s="18" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A31" s="18" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A32" s="18" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A33" s="18" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A34" s="18" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A35" s="18" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A36" s="18" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A37" s="18" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A38" s="18" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A39" s="18" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A40" s="18" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A41" s="18" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A42" s="18" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A43" s="18" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A44" s="18" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A45" s="18" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A46" s="18" t="s">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A47" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A47" s="18" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A48" s="18" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A49" s="18" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A50" s="18" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A51" s="18" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A52" s="18" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A53" s="18" t="s">
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A54" s="18" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A55" s="18" t="s">
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A56" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A56" s="18" t="s">
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A57" s="18" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A58" s="18" t="s">
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A59" s="18" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A60" s="18" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A61" s="18" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A62" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A62" s="18" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A63" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A63" s="18" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A64" s="31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A64" s="18" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A65" s="18" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A66" s="18" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A67" s="18" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A68" s="18" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A69" s="18" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70" s="31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A70" s="18" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A71" s="18" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72" s="31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A72" s="18" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A73" s="18" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A74" s="18" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A75" s="18" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A76" s="18" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A77" s="18" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78" s="31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A78" s="18" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79" s="31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A79" s="18" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80" s="31" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A80" s="18" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82" s="31" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A82" s="18" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83" s="31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A83" s="18" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84" s="31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A84" s="18" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85" s="31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A85" s="18" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86" s="31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A86" s="18" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A87" s="18" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88" s="31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A88" s="18" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89" s="31" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A89" s="18" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90" s="31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A90" s="18" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A91" s="18" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92" s="31" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A92" s="18" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A93" s="18" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94" s="31" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A94" s="18" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A95" s="18" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A96" s="18" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97" s="31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A97" s="18" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98" s="31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A98" s="18" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99" s="31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A99" s="18" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A100" s="18" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101" s="31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A101" s="18" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102" s="31" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A102" s="18" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -7194,1229 +7366,1227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="1"/>
+    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L2" s="26" t="s">
         <v>413</v>
       </c>
-      <c r="L1" s="31" t="s">
-        <v>569</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="N2" s="26" t="s">
         <v>414</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>415</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A3" s="18" t="s">
+      <c r="Q2" s="26" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A3" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A4" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A4" s="18" t="s">
+      <c r="N4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A5" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A5" s="18" t="s">
+      <c r="N5" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A6" s="18" t="s">
+      <c r="N6" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A7" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A7" s="18" t="s">
+      <c r="N7" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A8" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A8" s="18" t="s">
+      <c r="N8" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A9" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A9" s="18" t="s">
+      <c r="N9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A10" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A10" s="18" t="s">
+      <c r="N10" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A11" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A11" s="18" t="s">
+      <c r="N11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A12" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A12" s="18" t="s">
+      <c r="N12" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A13" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A13" s="18" t="s">
+      <c r="N13" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A14" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A14" s="18" t="s">
+      <c r="N14" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A15" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A15" s="18" t="s">
+      <c r="N15" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A16" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A16" s="18" t="s">
+      <c r="N16" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A17" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A17" s="18" t="s">
+      <c r="N17" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A18" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A18" s="18" t="s">
+      <c r="N18" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A19" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A19" s="18" t="s">
+      <c r="N19" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A20" s="18" t="s">
+      <c r="N20" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A21" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A21" s="18" t="s">
+      <c r="N21" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A22" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A22" s="18" t="s">
+      <c r="N22" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A23" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A23" s="18" t="s">
+      <c r="N23" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A24" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A24" s="18" t="s">
+      <c r="N24" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A25" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A25" s="18" t="s">
+      <c r="N25" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A26" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A26" s="18" t="s">
+      <c r="N26" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A27" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A27" s="18" t="s">
+      <c r="N27" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A28" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A28" s="18" t="s">
+      <c r="N28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A29" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A29" s="18" t="s">
+      <c r="N29" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A30" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A30" s="18" t="s">
+      <c r="N30" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A31" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A31" s="18" t="s">
+      <c r="N31" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A32" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A32" s="18" t="s">
+      <c r="N32" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A33" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A33" s="18" t="s">
+      <c r="N33" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A34" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A34" s="18" t="s">
+      <c r="N34" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A35" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A35" s="18" t="s">
+      <c r="N35" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A36" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A36" s="18" t="s">
+      <c r="N36" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A37" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A37" s="18" t="s">
+      <c r="N37" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A38" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A38" s="18" t="s">
+      <c r="N38" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A39" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A39" s="18" t="s">
+      <c r="N39" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A40" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A40" s="18" t="s">
+      <c r="N40" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A41" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A41" s="18" t="s">
+      <c r="N41" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A42" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="N41" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A42" s="18" t="s">
+      <c r="N42" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A43" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A43" s="18" t="s">
+      <c r="N43" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A44" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A44" s="18" t="s">
+      <c r="N44" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A45" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A45" s="18" t="s">
+      <c r="N45" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A46" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A46" s="18" t="s">
+      <c r="N46" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A47" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A47" s="18" t="s">
+      <c r="N47" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A48" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A48" s="18" t="s">
+      <c r="N48" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A49" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A49" s="18" t="s">
+      <c r="N49" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A50" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A50" s="18" t="s">
+      <c r="N50" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A51" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A51" s="18" t="s">
+      <c r="N51" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A52" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A52" s="18" t="s">
+      <c r="N52" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A53" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A53" s="18" t="s">
+      <c r="N53" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A54" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A54" s="18" t="s">
+      <c r="N54" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A55" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A55" s="18" t="s">
+      <c r="N55" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A56" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A56" s="18" t="s">
+      <c r="N56" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A57" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A57" s="18" t="s">
+      <c r="N57" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A58" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A58" s="18" t="s">
+      <c r="N58" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A59" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A59" s="18" t="s">
+      <c r="N59" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A60" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A60" s="18" t="s">
+      <c r="N60" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A61" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A61" s="18" t="s">
+      <c r="N61" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A62" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="N61" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A62" s="18" t="s">
+      <c r="N62" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A63" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A63" s="18" t="s">
+      <c r="N63" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A64" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="N63" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A64" s="18" t="s">
+      <c r="N64" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A65" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A65" s="18" t="s">
+      <c r="N65" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A66" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A66" s="18" t="s">
+      <c r="N66" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A67" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A67" s="18" t="s">
+      <c r="N67" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A68" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O67" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A68" s="18" t="s">
+      <c r="N68" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A69" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A69" s="18" t="s">
+      <c r="N69" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A70" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="N69" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A70" s="18" t="s">
+      <c r="N70" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A71" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A71" s="18" t="s">
+      <c r="N71" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A72" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="N71" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A72" s="18" t="s">
+      <c r="N72" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A73" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A73" s="18" t="s">
+      <c r="N73" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A74" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A74" s="18" t="s">
+      <c r="N74" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A75" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A75" s="18" t="s">
+      <c r="N75" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A76" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A76" s="18" t="s">
+      <c r="N76" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A77" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="N76" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A77" s="18" t="s">
+      <c r="N77" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A78" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="N77" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A78" s="18" t="s">
+      <c r="N78" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A79" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O78" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A79" s="18" t="s">
+      <c r="N79" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A80" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="N79" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O79" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A80" s="18" t="s">
+      <c r="N80" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A81" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O80" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A81" s="18" t="s">
+      <c r="N81" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A82" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A82" s="18" t="s">
+      <c r="N82" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A83" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="N82" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A83" s="18" t="s">
+      <c r="N83" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A84" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="N83" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A84" s="18" t="s">
+      <c r="N84" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A85" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="N84" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A85" s="18" t="s">
+      <c r="N85" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A86" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="N85" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A86" s="18" t="s">
+      <c r="N86" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A87" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="N86" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A87" s="18" t="s">
+      <c r="N87" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A88" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A88" s="18" t="s">
+      <c r="N88" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A89" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="N88" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A89" s="18" t="s">
+      <c r="N89" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A90" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="N89" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A90" s="18" t="s">
+      <c r="N90" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A91" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="N90" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A91" s="18" t="s">
+      <c r="N91" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A92" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="N91" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A92" s="18" t="s">
+      <c r="N92" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A93" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="N92" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A93" s="18" t="s">
+      <c r="N93" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A94" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="N93" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A94" s="18" t="s">
+      <c r="N94" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A95" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="N94" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A95" s="18" t="s">
+      <c r="N95" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A96" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="N95" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A96" s="18" t="s">
+      <c r="N96" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A97" s="31" t="s">
         <v>210</v>
       </c>
-      <c r="N96" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A97" s="18" t="s">
+      <c r="N97" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A98" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="N97" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A98" s="18" t="s">
+      <c r="N98" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A99" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="N98" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A99" s="18" t="s">
+      <c r="N99" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A100" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="N99" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A100" s="18" t="s">
+      <c r="N100" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A101" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="N100" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A101" s="18" t="s">
+      <c r="N101" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A102" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="N101" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="O101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A102" s="18" t="s">
-        <v>216</v>
-      </c>
       <c r="N102" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -8493,617 +8663,615 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="38" style="18" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="38" style="12" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="31" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="18" t="s">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="18" t="s">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="18" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A9" s="18" t="s">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="18" t="s">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A11" s="18" t="s">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A12" s="18" t="s">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="18" t="s">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A14" s="18" t="s">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A15" s="18" t="s">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="18" t="s">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A17" s="18" t="s">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A18" s="18" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A19" s="18" t="s">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A20" s="18" t="s">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A21" s="18" t="s">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A22" s="18" t="s">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="31" t="s">
         <v>465</v>
       </c>
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A23" s="18" t="s">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A24" s="18" t="s">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="31" t="s">
         <v>467</v>
       </c>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A26" s="31" t="s">
         <v>468</v>
       </c>
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A27" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A27" s="18" t="s">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A28" s="31" t="s">
         <v>470</v>
       </c>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A29" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A29" s="18" t="s">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A30" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A31" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A31" s="18" t="s">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A32" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A32" s="18" t="s">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A33" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A33" s="18" t="s">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A34" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="5"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A34" s="18" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A35" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A35" s="18" t="s">
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A36" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="B35" s="5"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A36" s="18" t="s">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A37" s="18" t="s">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A38" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="B37" s="5"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A38" s="18" t="s">
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="B38" s="5"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A39" s="18" t="s">
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="B39" s="5"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A40" s="18" t="s">
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A41" s="18" t="s">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A42" s="18" t="s">
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A43" s="18" t="s">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="B43" s="5"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A44" s="18" t="s">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="B44" s="5"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A45" s="18" t="s">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A46" s="18" t="s">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A47" s="18" t="s">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="B47" s="5"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A48" s="18" t="s">
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="B48" s="5"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A49" s="18" t="s">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A50" s="18" t="s">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="B50" s="5"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A51" s="18" t="s">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="B51" s="5"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A52" s="18" t="s">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="B52" s="5"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A53" s="18" t="s">
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A54" s="18" t="s">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A55" s="18" t="s">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A56" s="18" t="s">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A57" s="18" t="s">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A58" s="18" t="s">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A59" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A59" s="18" t="s">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A60" s="18" t="s">
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A61" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A61" s="18" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A62" s="31" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A62" s="18" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A63" s="31" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A63" s="18" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="31" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A64" s="18" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="31" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A65" s="18" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66" s="31" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A66" s="18" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67" s="31" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A67" s="18" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68" s="31" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A68" s="18" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69" s="31" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A69" s="18" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70" s="31" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A70" s="18" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71" s="31" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A71" s="18" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72" s="31" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A72" s="18" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73" s="31" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A73" s="18" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74" s="31" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A74" s="18" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75" s="31" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A75" s="18" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76" s="31" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A76" s="18" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77" s="31" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A77" s="18" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78" s="31" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A78" s="18" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79" s="31" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A79" s="18" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80" s="31" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A80" s="18" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81" s="31" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A81" s="18" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82" s="31" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A82" s="18" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83" s="31" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A83" s="18" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84" s="31" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A84" s="18" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85" s="31" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A85" s="18" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86" s="31" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A86" s="18" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87" s="31" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A87" s="18" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88" s="31" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A88" s="18" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89" s="31" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A89" s="18" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90" s="31" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A90" s="18" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91" s="31" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A91" s="18" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92" s="31" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A92" s="18" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93" s="31" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A93" s="18" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94" s="31" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A94" s="18" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95" s="31" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A95" s="18" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96" s="31" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A96" s="18" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97" s="31" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A97" s="18" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98" s="31" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A98" s="18" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99" s="31" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A99" s="18" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100" s="31" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A100" s="18" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101" s="31" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A101" s="18" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102" s="31" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A102" s="18" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -9130,181 +9298,195 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="37.6328125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="47.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="60.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="42.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="18.88671875" style="4"/>
+    <col min="2" max="16384" width="18.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>699</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>701</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q1" s="27"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>552</v>
-      </c>
       <c r="E2" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="M2" s="26" t="s">
         <v>694</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="26" t="s">
         <v>695</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="26" t="s">
         <v>696</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="P2" s="15" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
+      <c r="Q2" s="32" t="s">
+        <v>797</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>798</v>
+      </c>
+      <c r="S2" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>800</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A3" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A4" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A5" s="31" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A6" s="31" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A7" s="31" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A8" s="31" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A9" s="31" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A10" s="31" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A11" s="31" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A12" s="31" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A12" s="18" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -9313,7 +9495,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$4</xm:f>
@@ -9344,6 +9526,18 @@
           </x14:formula1>
           <xm:sqref>I3:I12</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Admin!$O$2:$O$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q3:Q12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Admin!$P$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>T3:T12</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -9358,68 +9552,68 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="28.08984375" style="1"/>
+    <col min="1" max="16384" width="28.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3" s="31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4" s="31" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -9449,30 +9643,30 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.36328125" style="1"/>
+    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>751</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>752</v>
       </c>
     </row>
   </sheetData>

--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -4149,9 +4149,6 @@
     <t>Variation: Imputation</t>
   </si>
   <si>
-    <t>Variation: Attributes</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4211,6 +4208,10 @@
   </si>
   <si>
     <t>Structural variations</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4417,15 +4418,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" customBuiltin="1"/>
@@ -5011,53 +5012,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>704</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>639</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="30" t="s">
+        <v>802</v>
+      </c>
+      <c r="P1" s="30" t="s">
         <v>803</v>
-      </c>
-      <c r="P1" s="31" t="s">
-        <v>804</v>
       </c>
       <c r="Q1" s="4"/>
     </row>
@@ -5105,7 +5106,7 @@
         <v>613</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5155,7 +5156,7 @@
         <v>614</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
@@ -6130,7 +6131,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>409</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -6150,48 +6151,48 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="31">
+      <c r="A12" s="30">
         <v>2</v>
       </c>
-      <c r="D12" s="33"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="31">
+      <c r="A13" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="31">
+      <c r="A14" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="31">
+      <c r="A16" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="31">
+      <c r="A20" s="30">
         <v>10</v>
       </c>
     </row>
@@ -6278,17 +6279,17 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="31">
+      <c r="A7" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="31">
+      <c r="A8" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="31">
+      <c r="A9" s="30">
         <v>3</v>
       </c>
     </row>
@@ -6343,19 +6344,19 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="31">
+      <c r="A17" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" s="31">
+      <c r="A18" s="30">
         <v>2</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="31">
+      <c r="A19" s="30">
         <v>3</v>
       </c>
       <c r="B19" s="4"/>
@@ -6384,7 +6385,7 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="31">
+      <c r="A23" s="30">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -6392,14 +6393,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="31">
+      <c r="A24" s="30">
         <v>2</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" s="31">
+      <c r="A25" s="30">
         <v>3</v>
       </c>
       <c r="B25" s="4"/>
@@ -6441,19 +6442,19 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A32" s="31">
+      <c r="A32" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="31">
+      <c r="A33" s="30">
         <v>2</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="31">
+      <c r="A34" s="30">
         <v>3</v>
       </c>
       <c r="B34" s="4"/>
@@ -6479,19 +6480,19 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="31">
+      <c r="A38" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="31">
+      <c r="A39" s="30">
         <v>2</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="31">
+      <c r="A40" s="30">
         <v>3</v>
       </c>
       <c r="B40" s="4"/>
@@ -6524,19 +6525,19 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="31">
+      <c r="A44" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="31">
+      <c r="A45" s="30">
         <v>2</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="31">
+      <c r="A46" s="30">
         <v>3</v>
       </c>
       <c r="B46" s="4"/>
@@ -6560,18 +6561,18 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="31">
+      <c r="A50" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="31">
+      <c r="A51" s="30">
         <v>2</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="31">
+      <c r="A52" s="30">
         <v>3</v>
       </c>
       <c r="B52" s="4"/>
@@ -6593,19 +6594,19 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="31">
+      <c r="A56" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="31">
+      <c r="A57" s="30">
         <v>2</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="31">
+      <c r="A58" s="30">
         <v>3</v>
       </c>
       <c r="B58" s="4"/>
@@ -6735,618 +6736,618 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>47</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>56</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>63</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>65</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="30" t="s">
         <v>67</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="30" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="30" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="30" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="30" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="30" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="30" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="30" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="30" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="30" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="30" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="30" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="30" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7430,14 +7431,14 @@
       <c r="K1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
@@ -7493,7 +7494,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -7504,7 +7505,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>117</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -7515,7 +7516,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7526,7 +7527,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -7537,7 +7538,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -7548,7 +7549,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -7559,7 +7560,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -7570,7 +7571,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -7581,7 +7582,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -7592,7 +7593,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -7603,7 +7604,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -7614,7 +7615,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -7625,7 +7626,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -7636,7 +7637,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -7647,7 +7648,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -7658,7 +7659,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -7669,7 +7670,7 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -7680,7 +7681,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -7691,7 +7692,7 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -7702,7 +7703,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -7713,7 +7714,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -7724,7 +7725,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -7735,7 +7736,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -7746,7 +7747,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -7757,7 +7758,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -7768,7 +7769,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -7779,7 +7780,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -7790,7 +7791,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -7801,7 +7802,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -7812,7 +7813,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -7823,7 +7824,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -7834,7 +7835,7 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -7845,7 +7846,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -7856,7 +7857,7 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -7867,7 +7868,7 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -7878,7 +7879,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -7889,7 +7890,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -7900,7 +7901,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -7911,7 +7912,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -7922,7 +7923,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -7933,7 +7934,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -7944,7 +7945,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -7955,7 +7956,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -7966,7 +7967,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -7977,7 +7978,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -7988,7 +7989,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -7999,7 +8000,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -8010,7 +8011,7 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -8021,7 +8022,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="30" t="s">
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -8032,7 +8033,7 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -8043,7 +8044,7 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -8054,7 +8055,7 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="30" t="s">
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -8065,7 +8066,7 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -8076,7 +8077,7 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="30" t="s">
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -8087,7 +8088,7 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="30" t="s">
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -8098,7 +8099,7 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="30" t="s">
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -8109,7 +8110,7 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
@@ -8120,7 +8121,7 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="30" t="s">
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -8131,7 +8132,7 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
@@ -8142,7 +8143,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -8153,7 +8154,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -8164,7 +8165,7 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -8175,7 +8176,7 @@
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -8186,7 +8187,7 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -8197,7 +8198,7 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="30" t="s">
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -8208,7 +8209,7 @@
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -8219,7 +8220,7 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -8230,7 +8231,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="30" t="s">
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -8241,7 +8242,7 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -8252,7 +8253,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="30" t="s">
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -8263,7 +8264,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -8274,7 +8275,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="30" t="s">
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -8285,7 +8286,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="30" t="s">
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -8296,7 +8297,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="30" t="s">
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -8307,7 +8308,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="30" t="s">
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -8318,7 +8319,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="30" t="s">
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -8329,7 +8330,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="30" t="s">
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -8340,7 +8341,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="30" t="s">
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -8351,7 +8352,7 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="30" t="s">
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -8362,7 +8363,7 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="30" t="s">
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -8373,7 +8374,7 @@
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -8384,7 +8385,7 @@
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="30" t="s">
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -8395,7 +8396,7 @@
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
@@ -8406,7 +8407,7 @@
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="30" t="s">
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -8417,7 +8418,7 @@
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="30" t="s">
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -8428,7 +8429,7 @@
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="30" t="s">
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -8439,7 +8440,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="30" t="s">
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -8450,7 +8451,7 @@
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="30" t="s">
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
@@ -8461,7 +8462,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="30" t="s">
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -8472,7 +8473,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="30" t="s">
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
@@ -8483,7 +8484,7 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="30" t="s">
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -8494,7 +8495,7 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="30" t="s">
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -8505,7 +8506,7 @@
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="30" t="s">
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -8516,7 +8517,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="30" t="s">
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
@@ -8527,7 +8528,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -8538,7 +8539,7 @@
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="30" t="s">
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -8549,7 +8550,7 @@
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="30" t="s">
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -8560,7 +8561,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="30" t="s">
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
@@ -8571,7 +8572,7 @@
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="30" t="s">
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -8582,7 +8583,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="30" t="s">
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -8717,560 +8718,560 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>445</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>446</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>447</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>448</v>
       </c>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>449</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>450</v>
       </c>
       <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>451</v>
       </c>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>452</v>
       </c>
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>453</v>
       </c>
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>454</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>455</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>456</v>
       </c>
       <c r="B14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>457</v>
       </c>
       <c r="B15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>458</v>
       </c>
       <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>459</v>
       </c>
       <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>460</v>
       </c>
       <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>461</v>
       </c>
       <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>462</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>463</v>
       </c>
       <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>464</v>
       </c>
       <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>465</v>
       </c>
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>466</v>
       </c>
       <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>467</v>
       </c>
       <c r="B25" s="4"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="30" t="s">
         <v>468</v>
       </c>
       <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>469</v>
       </c>
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>470</v>
       </c>
       <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>471</v>
       </c>
       <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>472</v>
       </c>
       <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>473</v>
       </c>
       <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>474</v>
       </c>
       <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>475</v>
       </c>
       <c r="B33" s="4"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>476</v>
       </c>
       <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>477</v>
       </c>
       <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>478</v>
       </c>
       <c r="B36" s="4"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>479</v>
       </c>
       <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>480</v>
       </c>
       <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>481</v>
       </c>
       <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>482</v>
       </c>
       <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>483</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="30" t="s">
         <v>484</v>
       </c>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="30" t="s">
         <v>485</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="30" t="s">
         <v>486</v>
       </c>
       <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="30" t="s">
         <v>487</v>
       </c>
       <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>488</v>
       </c>
       <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="30" t="s">
         <v>489</v>
       </c>
       <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="30" t="s">
         <v>490</v>
       </c>
       <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="30" t="s">
         <v>491</v>
       </c>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="30" t="s">
         <v>492</v>
       </c>
       <c r="B50" s="4"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="30" t="s">
         <v>493</v>
       </c>
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="30" t="s">
         <v>494</v>
       </c>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="30" t="s">
         <v>495</v>
       </c>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="30" t="s">
         <v>496</v>
       </c>
       <c r="B54" s="4"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="30" t="s">
         <v>497</v>
       </c>
       <c r="B55" s="4"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="30" t="s">
         <v>498</v>
       </c>
       <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="30" t="s">
         <v>499</v>
       </c>
       <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="30" t="s">
         <v>500</v>
       </c>
       <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>501</v>
       </c>
       <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="30" t="s">
         <v>502</v>
       </c>
       <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="30" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="30" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="30" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="30" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="30" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="30" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="30" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="30" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="30" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="30" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="30" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="30" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="30" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="30" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="31" t="s">
+      <c r="A83" s="30" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="31" t="s">
+      <c r="A84" s="30" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="31" t="s">
+      <c r="A85" s="30" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="31" t="s">
+      <c r="A86" s="30" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="31" t="s">
+      <c r="A87" s="30" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="31" t="s">
+      <c r="A88" s="30" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="30" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="30" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="31" t="s">
+      <c r="A91" s="30" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="31" t="s">
+      <c r="A92" s="30" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="31" t="s">
+      <c r="A93" s="30" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="31" t="s">
+      <c r="A94" s="30" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="31" t="s">
+      <c r="A95" s="30" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="30" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="30" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="30" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="30" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="31" t="s">
+      <c r="A101" s="30" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="31" t="s">
+      <c r="A102" s="30" t="s">
         <v>544</v>
       </c>
     </row>
@@ -9356,7 +9357,7 @@
         <v>701</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>793</v>
@@ -9420,24 +9421,24 @@
       <c r="P2" s="27" t="s">
         <v>697</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>797</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="31" t="s">
         <v>798</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>799</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="31" t="s">
         <v>800</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -9445,47 +9446,47 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9607,12 +9608,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>365</v>
       </c>
     </row>

--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -4126,17 +4126,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># 項目がない付加情報を 名前:値; 名前:値; … の形式で記載します。
-例: analysis_date:2022-04-05; reference_database:dbSNP build 153</t>
-    <rPh sb="28" eb="30">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Variation: Experiment Type</t>
   </si>
   <si>
@@ -4211,6 +4200,42 @@
   </si>
   <si>
     <t>Attributes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t># 各 type に共通。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>項目がない付加情報を 名前:値; 名前:値; … の形式で記載します。
+例: analysis_date:2022-04-05; reference_database:dbSNP build 153</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>キサイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4756,9 +4781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5055,10 +5078,10 @@
         <v>639</v>
       </c>
       <c r="O1" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="P1" s="30" t="s">
         <v>802</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>803</v>
       </c>
       <c r="Q1" s="4"/>
     </row>
@@ -5106,7 +5129,7 @@
         <v>613</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5156,7 +5179,7 @@
         <v>614</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
@@ -9301,7 +9324,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -9309,7 +9334,7 @@
     <col min="2" max="16384" width="18.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>548</v>
       </c>
@@ -9357,7 +9382,7 @@
         <v>701</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>793</v>
@@ -9368,8 +9393,8 @@
       <c r="T1" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>796</v>
+      <c r="U1" s="13" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -9422,19 +9447,19 @@
         <v>697</v>
       </c>
       <c r="Q2" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="R2" s="31" t="s">
         <v>797</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="S2" s="31" t="s">
         <v>798</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="T2" s="31" t="s">
         <v>799</v>
       </c>
-      <c r="T2" s="31" t="s">
-        <v>800</v>
-      </c>
       <c r="U2" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">

--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="808">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -4235,6 +4235,19 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Read Pair 2 Start Base を必須から任意に変更。</t>
+    <rPh sb="24" eb="26">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4471,8 +4484,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFBFE4FF"/>
       <color rgb="FF84919E"/>
-      <color rgb="FFBFE4FF"/>
       <color rgb="FFFFCA80"/>
       <color rgb="FFFDE9D9"/>
       <color rgb="FFDAEEF3"/>
@@ -4779,7 +4792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4896,7 +4909,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="9">
-        <v>44678</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
@@ -4990,6 +5003,14 @@
       </c>
       <c r="B38" s="9">
         <v>44678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B39" s="9">
+        <v>44907</v>
       </c>
     </row>
   </sheetData>
@@ -7512,7 +7533,7 @@
       <c r="P2" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="27" t="s">
         <v>587</v>
       </c>
     </row>

--- a/assets/files/submission/JGA_metadata.xlsx
+++ b/assets/files/submission/JGA_metadata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="807">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -4235,19 +4235,6 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Read Pair 2 Start Base を必須から任意に変更。</t>
-    <rPh sb="24" eb="26">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4484,8 +4471,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF84919E"/>
       <color rgb="FFBFE4FF"/>
-      <color rgb="FF84919E"/>
       <color rgb="FFFFCA80"/>
       <color rgb="FFFDE9D9"/>
       <color rgb="FFDAEEF3"/>
@@ -4792,7 +4779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4909,7 +4896,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="9">
-        <v>44907</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
@@ -5003,14 +4990,6 @@
       </c>
       <c r="B38" s="9">
         <v>44678</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="B39" s="9">
-        <v>44907</v>
       </c>
     </row>
   </sheetData>
@@ -7533,7 +7512,7 @@
       <c r="P2" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="26" t="s">
         <v>587</v>
       </c>
     </row>
